--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.332428</v>
+        <v>0.2790136666666667</v>
       </c>
       <c r="H2">
-        <v>9.997284000000001</v>
+        <v>0.837041</v>
       </c>
       <c r="I2">
-        <v>0.01078284025505985</v>
+        <v>0.0009105462302916563</v>
       </c>
       <c r="J2">
-        <v>0.01078284025505985</v>
+        <v>0.0009105462302916565</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>4.403621429269334</v>
+        <v>0.1451841104181111</v>
       </c>
       <c r="R2">
-        <v>39.63259286342401</v>
+        <v>1.306656993763</v>
       </c>
       <c r="S2">
-        <v>0.0001101771275722432</v>
+        <v>3.738643068134518E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001101771275722432</v>
+        <v>3.73864306813452E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.332428</v>
+        <v>0.2790136666666667</v>
       </c>
       <c r="H3">
-        <v>9.997284000000001</v>
+        <v>0.837041</v>
       </c>
       <c r="I3">
-        <v>0.01078284025505985</v>
+        <v>0.0009105462302916563</v>
       </c>
       <c r="J3">
-        <v>0.01078284025505985</v>
+        <v>0.0009105462302916565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>353.1148224035373</v>
+        <v>29.56518831109322</v>
       </c>
       <c r="R3">
-        <v>3178.033401631836</v>
+        <v>266.086694799839</v>
       </c>
       <c r="S3">
-        <v>0.008834814132072167</v>
+        <v>0.0007613345979738272</v>
       </c>
       <c r="T3">
-        <v>0.008834814132072169</v>
+        <v>0.0007613345979738275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.332428</v>
+        <v>0.2790136666666667</v>
       </c>
       <c r="H4">
-        <v>9.997284000000001</v>
+        <v>0.837041</v>
       </c>
       <c r="I4">
-        <v>0.01078284025505985</v>
+        <v>0.0009105462302916563</v>
       </c>
       <c r="J4">
-        <v>0.01078284025505985</v>
+        <v>0.0009105462302916565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>73.45618276956667</v>
+        <v>5.64920644982</v>
       </c>
       <c r="R4">
-        <v>661.1056449261</v>
+        <v>50.84285804838</v>
       </c>
       <c r="S4">
-        <v>0.001837848995415443</v>
+        <v>0.0001454729892496946</v>
       </c>
       <c r="T4">
-        <v>0.001837848995415443</v>
+        <v>0.0001454729892496947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>887.394043</v>
       </c>
       <c r="I5">
-        <v>0.9571227754418815</v>
+        <v>0.9653210543293842</v>
       </c>
       <c r="J5">
-        <v>0.9571227754418815</v>
+        <v>0.9653210543293843</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>390.8809056500498</v>
+        <v>153.9178065629833</v>
       </c>
       <c r="R5">
-        <v>3517.928150850448</v>
+        <v>1385.260259066849</v>
       </c>
       <c r="S5">
-        <v>0.009779708837166144</v>
+        <v>0.003963544901104982</v>
       </c>
       <c r="T5">
-        <v>0.009779708837166145</v>
+        <v>0.003963544901104983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>887.394043</v>
       </c>
       <c r="I6">
-        <v>0.9571227754418815</v>
+        <v>0.9653210543293842</v>
       </c>
       <c r="J6">
-        <v>0.9571227754418815</v>
+        <v>0.9653210543293843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>31343.71194175358</v>
@@ -818,10 +818,10 @@
         <v>282093.4074757822</v>
       </c>
       <c r="S6">
-        <v>0.7842091343822039</v>
+        <v>0.8071334462371308</v>
       </c>
       <c r="T6">
-        <v>0.784209134382204</v>
+        <v>0.807133446237131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>887.394043</v>
       </c>
       <c r="I7">
-        <v>0.9571227754418815</v>
+        <v>0.9653210543293842</v>
       </c>
       <c r="J7">
-        <v>0.9571227754418815</v>
+        <v>0.9653210543293843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>6520.228795264064</v>
+        <v>5989.04014408786</v>
       </c>
       <c r="R7">
-        <v>58682.05915737657</v>
+        <v>53901.36129679074</v>
       </c>
       <c r="S7">
-        <v>0.1631339322225115</v>
+        <v>0.1542240631911484</v>
       </c>
       <c r="T7">
-        <v>0.1631339322225115</v>
+        <v>0.1542240631911485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.918743333333333</v>
+        <v>10.34746466666667</v>
       </c>
       <c r="H8">
-        <v>29.75623</v>
+        <v>31.042394</v>
       </c>
       <c r="I8">
-        <v>0.03209438430305867</v>
+        <v>0.0337683994403241</v>
       </c>
       <c r="J8">
-        <v>0.03209438430305868</v>
+        <v>0.03376839944032412</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>13.10707709036445</v>
+        <v>5.384279095215778</v>
       </c>
       <c r="R8">
-        <v>117.96369381328</v>
+        <v>48.458511856942</v>
       </c>
       <c r="S8">
-        <v>0.0003279346619320818</v>
+        <v>0.0001386508320935301</v>
       </c>
       <c r="T8">
-        <v>0.0003279346619320819</v>
+        <v>0.0001386508320935302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.918743333333333</v>
+        <v>10.34746466666667</v>
       </c>
       <c r="H9">
-        <v>29.75623</v>
+        <v>31.042394</v>
       </c>
       <c r="I9">
-        <v>0.03209438430305867</v>
+        <v>0.0337683994403241</v>
       </c>
       <c r="J9">
-        <v>0.03209438430305868</v>
+        <v>0.03376839944032412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>1051.022044772241</v>
+        <v>1096.450740450169</v>
       </c>
       <c r="R9">
-        <v>9459.198402950171</v>
+        <v>9868.056664051526</v>
       </c>
       <c r="S9">
-        <v>0.02629621818497802</v>
+        <v>0.02823475619012108</v>
       </c>
       <c r="T9">
-        <v>0.02629621818497802</v>
+        <v>0.0282347561901211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.918743333333333</v>
+        <v>10.34746466666667</v>
       </c>
       <c r="H10">
-        <v>29.75623</v>
+        <v>31.042394</v>
       </c>
       <c r="I10">
-        <v>0.03209438430305867</v>
+        <v>0.0337683994403241</v>
       </c>
       <c r="J10">
-        <v>0.03209438430305868</v>
+        <v>0.03376839944032412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>218.6372888289722</v>
+        <v>209.50573795388</v>
       </c>
       <c r="R10">
-        <v>1967.73559946075</v>
+        <v>1885.55164158492</v>
       </c>
       <c r="S10">
-        <v>0.005470231456148575</v>
+        <v>0.005394992418109488</v>
       </c>
       <c r="T10">
-        <v>0.005470231456148577</v>
+        <v>0.005394992418109491</v>
       </c>
     </row>
   </sheetData>
